--- a/3510.xlsx
+++ b/3510.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7055514E-FF90-4E8F-97CE-F42C28920C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC86C3E9-E0B9-47E1-B02B-10200515C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>The fact that the content is modeled so closely to the book is incredibly helpful. Also listing the example problems on the board.</t>
+  </si>
+  <si>
+    <t>I really enjoy the lecture and find it to be one of my favorite classes. I’d recommend it to my peers for sure</t>
   </si>
 </sst>
 </file>
@@ -121,9 +124,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +145,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF050505"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,12 +183,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,10 +212,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -535,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,48 +997,53 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>22</v>
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
